--- a/xlsx/維德角_intext.xlsx
+++ b/xlsx/維德角_intext.xlsx
@@ -29,7 +29,7 @@
     <t>佛得角國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_維德角</t>
+    <t>体育运动_体育运动_南非_維德角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E5%BE%97%E8%A7%92%E5%9C%8B%E5%BE%BD</t>
